--- a/second-order/1876/April1876.xlsx
+++ b/second-order/1876/April1876.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3793\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1876/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9610" documentId="13_ncr:1_{11735958-B24A-4786-811B-975F53DE7559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79560A26-F1E4-4723-A0FE-A51C76231A9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F1DE36-1D7C-B94A-9B9A-239CF4C5DDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +589,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,15 +614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,9 +634,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -674,7 +674,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -780,7 +780,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -922,7 +922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -932,53 +932,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1FF916-EB89-48ED-98E5-A9C29B513968}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -3073,54 +3073,54 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -5215,49 +5215,49 @@
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -7350,60 +7350,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="G27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="R36" sqref="R36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>65</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>65</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>65</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -9477,7 +9477,7 @@
         <v>2.8359999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -9515,59 +9515,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>66</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>66</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -11641,7 +11641,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -11678,60 +11678,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="F31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>67</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -13805,7 +13805,7 @@
         <v>2.0630000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -13842,60 +13842,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -14021,11 +14021,11 @@
       <c r="T4" s="1">
         <v>0</v>
       </c>
-      <c r="U4" s="38">
+      <c r="U4" s="32">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -14086,11 +14086,11 @@
       <c r="T5" s="1">
         <v>1</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -14151,11 +14151,11 @@
       <c r="T6" s="1">
         <v>10</v>
       </c>
-      <c r="U6" s="38">
+      <c r="U6" s="32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -14216,11 +14216,11 @@
       <c r="T7" s="1">
         <v>10</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -14281,11 +14281,11 @@
       <c r="T8" s="1">
         <v>10</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -14346,11 +14346,11 @@
       <c r="T9" s="1">
         <v>10</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U9" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -14411,11 +14411,11 @@
       <c r="T10" s="1">
         <v>2</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -14476,11 +14476,11 @@
       <c r="T11" s="1">
         <v>10</v>
       </c>
-      <c r="U11" s="38">
+      <c r="U11" s="32">
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -14541,11 +14541,11 @@
       <c r="T12" s="1">
         <v>10</v>
       </c>
-      <c r="U12" s="38">
+      <c r="U12" s="32">
         <v>0.33</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -14606,11 +14606,11 @@
       <c r="T13" s="1">
         <v>10</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="33">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
@@ -14671,11 +14671,11 @@
       <c r="T14" s="1">
         <v>4</v>
       </c>
-      <c r="U14" s="38">
+      <c r="U14" s="32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
@@ -14736,11 +14736,11 @@
       <c r="T15" s="1">
         <v>0</v>
       </c>
-      <c r="U15" s="38" t="s">
+      <c r="U15" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -14801,11 +14801,11 @@
       <c r="T16" s="1">
         <v>0</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -14866,11 +14866,11 @@
       <c r="T17" s="1">
         <v>1</v>
       </c>
-      <c r="U17" s="38" t="s">
+      <c r="U17" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -14931,11 +14931,11 @@
       <c r="T18" s="1">
         <v>0</v>
       </c>
-      <c r="U18" s="38" t="s">
+      <c r="U18" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -14996,11 +14996,11 @@
       <c r="T19" s="1">
         <v>0</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -15061,11 +15061,11 @@
       <c r="T20" s="1">
         <v>10</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="32">
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -15126,11 +15126,11 @@
       <c r="T21" s="1">
         <v>10</v>
       </c>
-      <c r="U21" s="38">
+      <c r="U21" s="32">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -15191,11 +15191,11 @@
       <c r="T22" s="1">
         <v>9</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -15256,11 +15256,11 @@
       <c r="T23" s="1">
         <v>10</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="32">
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -15321,11 +15321,11 @@
       <c r="T24" s="1">
         <v>1</v>
       </c>
-      <c r="U24" s="38">
+      <c r="U24" s="32">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
@@ -15386,11 +15386,11 @@
       <c r="T25" s="1">
         <v>10</v>
       </c>
-      <c r="U25" s="38">
+      <c r="U25" s="32">
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -15451,11 +15451,11 @@
       <c r="T26" s="1">
         <v>10</v>
       </c>
-      <c r="U26" s="38">
+      <c r="U26" s="32">
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -15516,11 +15516,11 @@
       <c r="T27" s="1">
         <v>10</v>
       </c>
-      <c r="U27" s="38">
+      <c r="U27" s="32">
         <v>0.54</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -15581,11 +15581,11 @@
       <c r="T28" s="1">
         <v>6</v>
       </c>
-      <c r="U28" s="38">
+      <c r="U28" s="32">
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -15646,11 +15646,11 @@
       <c r="T29" s="1">
         <v>0</v>
       </c>
-      <c r="U29" s="38">
+      <c r="U29" s="32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -15711,11 +15711,11 @@
       <c r="T30" s="1">
         <v>10</v>
       </c>
-      <c r="U30" s="38">
+      <c r="U30" s="32">
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -15776,11 +15776,11 @@
       <c r="T31" s="1">
         <v>5</v>
       </c>
-      <c r="U31" s="38">
+      <c r="U31" s="32">
         <v>0.32</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -15841,11 +15841,11 @@
       <c r="T32" s="1">
         <v>10</v>
       </c>
-      <c r="U32" s="38">
+      <c r="U32" s="32">
         <v>0.06</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -15906,11 +15906,11 @@
       <c r="T33" s="1">
         <v>1</v>
       </c>
-      <c r="U33" s="38">
+      <c r="U33" s="32">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -15969,7 +15969,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -16008,59 +16008,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -18134,7 +18134,7 @@
         <v>3.5950000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -18171,60 +18171,60 @@
   <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
@@ -19784,7 +19784,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -20298,7 +20298,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -20337,59 +20337,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -20844,7 +20844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -21689,7 +21689,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
@@ -21949,7 +21949,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -22209,7 +22209,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -22274,7 +22274,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -22339,7 +22339,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -22456,14 +22456,14 @@
       <c r="S34" s="14">
         <v>8.6</v>
       </c>
-      <c r="T34" s="37">
+      <c r="T34" s="31">
         <v>6.1</v>
       </c>
       <c r="U34" s="17">
         <v>2.58</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -22498,53 +22498,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80476FA-4182-4264-80A8-C7112CFAE3A7}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="I21" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="5">
-        <v>29.536000000000001</v>
+        <v>30.536000000000001</v>
       </c>
       <c r="F8" s="6">
         <v>30.475999999999999</v>
@@ -22934,7 +22934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -23844,7 +23844,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -23974,7 +23974,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -24104,7 +24104,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -24299,7 +24299,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -24635,49 +24635,49 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -24807,7 +24807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -24872,7 +24872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -24937,7 +24937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -25002,7 +25002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -25067,7 +25067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -25197,7 +25197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -25262,7 +25262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -25327,7 +25327,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -25392,7 +25392,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -25457,7 +25457,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -25587,7 +25587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -25717,7 +25717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -26042,7 +26042,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -26172,7 +26172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -26237,7 +26237,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -26497,7 +26497,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -26692,7 +26692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -26770,60 +26770,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -27018,7 +27018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -27083,7 +27083,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -27148,7 +27148,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -27213,7 +27213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -27278,7 +27278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -27408,7 +27408,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -27538,7 +27538,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -27603,7 +27603,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -27668,7 +27668,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -27733,7 +27733,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -27798,7 +27798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -27928,7 +27928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -27993,7 +27993,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
@@ -28058,7 +28058,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -28123,7 +28123,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -28188,7 +28188,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -28318,7 +28318,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -28448,7 +28448,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -28578,7 +28578,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -28773,7 +28773,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -28838,7 +28838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -28897,7 +28897,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -28935,59 +28935,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
@@ -29117,7 +29117,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -29182,7 +29182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -29247,7 +29247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -29312,7 +29312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -29377,7 +29377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -29442,7 +29442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -29507,7 +29507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -29572,7 +29572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -29637,7 +29637,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -29702,7 +29702,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -29832,7 +29832,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -29897,7 +29897,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -30027,7 +30027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -30092,7 +30092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
@@ -30157,7 +30157,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -30222,7 +30222,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -30287,7 +30287,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -30352,7 +30352,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -30417,7 +30417,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -30482,7 +30482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -30547,7 +30547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -30612,7 +30612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -30677,7 +30677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -30742,7 +30742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -30807,7 +30807,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -30872,7 +30872,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -30937,7 +30937,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
@@ -31002,7 +31002,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -31061,7 +31061,7 @@
         <v>1.996</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -31100,49 +31100,49 @@
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -31207,7 +31207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -31272,7 +31272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -31337,7 +31337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -31402,7 +31402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -31467,7 +31467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -31597,7 +31597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -31662,7 +31662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -31857,7 +31857,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -31922,7 +31922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -31987,7 +31987,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -32052,7 +32052,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -32117,7 +32117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -32182,7 +32182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -32247,7 +32247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -32377,7 +32377,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -32442,7 +32442,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -32507,7 +32507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -32572,7 +32572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -32637,7 +32637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
@@ -32702,7 +32702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -32767,7 +32767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -32832,7 +32832,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -32897,7 +32897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -33027,7 +33027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -33092,7 +33092,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
@@ -33157,7 +33157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -33230,6 +33230,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-28690</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-28690</Url>
+      <Description>H7Q62YT2XCZT-908671883-28690</Description>
+    </_dlc_DocIdUrl>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -33277,35 +33306,6 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-28690</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-28690</Url>
-      <Description>H7Q62YT2XCZT-908671883-28690</Description>
-    </_dlc_DocIdUrl>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33610,17 +33610,51 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CAAF4BF-0392-424D-8BA5-5E22033279B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CAAF4BF-0392-424D-8BA5-5E22033279B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E0EEC4-8E5A-4D94-A833-89190184EBA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E0EEC4-8E5A-4D94-A833-89190184EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>